--- a/Worksheet in Java Architect Boot Camp Program.xlsx
+++ b/Worksheet in Java Architect Boot Camp Program.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="7515" windowHeight="5640"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="7515" windowHeight="5640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Architect Evaluation Checklist" sheetId="1" r:id="rId1"/>
     <sheet name="xl_DCF_History" sheetId="2" state="veryHidden" r:id="rId2"/>
     <sheet name="Classified as UnClassified" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Sonar" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Architect Evaluation Checklist'!$A$8:$D$40</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
   <si>
     <t>S. No</t>
   </si>
@@ -335,6 +336,24 @@
   <si>
     <t>Sonar Exceptions</t>
   </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed StarUML. </t>
+  </si>
+  <si>
+    <t>Yet to start</t>
+  </si>
+  <si>
+    <t>Intergrated Sonarlint in eclipse. And working on sonar exceptions</t>
+  </si>
+  <si>
+    <t>Going through videos for Angular4.Learned Springboot implementation. Using bootstrap in casestudy.</t>
+  </si>
+  <si>
+    <t>Created database model diagram for case study.</t>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -538,12 +557,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -609,6 +680,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3301,7 +3414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3309,11 +3422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:CV330"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3383,7 +3496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:100" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -3427,7 +3540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:100" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -3454,7 +3567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:100" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -3476,7 +3589,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:100" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -3522,7 +3635,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:100" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -3544,7 +3657,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:100" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -3592,7 +3705,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -3614,7 +3727,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>11</v>
       </c>
@@ -3636,7 +3749,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>12</v>
       </c>
@@ -3682,7 +3795,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -3706,7 +3819,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -3728,7 +3841,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>16</v>
       </c>
@@ -3752,7 +3865,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>17</v>
       </c>
@@ -3798,7 +3911,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -3820,7 +3933,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -3866,7 +3979,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>22</v>
       </c>
@@ -3888,7 +4001,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>23</v>
       </c>
@@ -3910,7 +4023,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>24</v>
       </c>
@@ -3932,7 +4045,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3953,7 +4066,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>26</v>
       </c>
@@ -4047,7 +4160,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>30</v>
       </c>
@@ -4070,7 +4183,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>31</v>
       </c>
@@ -4093,7 +4206,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>32</v>
       </c>
@@ -8984,7 +9097,13 @@
       <c r="D330" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:D40"/>
+  <autoFilter ref="A8:D40">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D318 C9:C32">
@@ -9002,7 +9121,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId4" name="CheckBox19">
+        <control shapeId="1096" r:id="rId4" name="CheckBox71">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -9022,12 +9141,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId4" name="CheckBox19"/>
+        <control shapeId="1096" r:id="rId4" name="CheckBox71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId6" name="CheckBox20">
+        <control shapeId="1095" r:id="rId6" name="CheckBox70">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -9047,12 +9166,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId6" name="CheckBox20"/>
+        <control shapeId="1095" r:id="rId6" name="CheckBox70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId8" name="CheckBox21">
+        <control shapeId="1094" r:id="rId8" name="CheckBox69">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -9072,12 +9191,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId8" name="CheckBox21"/>
+        <control shapeId="1094" r:id="rId8" name="CheckBox69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId10" name="CheckBox22">
+        <control shapeId="1093" r:id="rId10" name="CheckBox68">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
@@ -9097,12 +9216,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId10" name="CheckBox22"/>
+        <control shapeId="1093" r:id="rId10" name="CheckBox68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId12" name="CheckBox23">
+        <control shapeId="1092" r:id="rId12" name="CheckBox67">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
@@ -9122,12 +9241,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId12" name="CheckBox23"/>
+        <control shapeId="1092" r:id="rId12" name="CheckBox67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId14" name="CheckBox24">
+        <control shapeId="1091" r:id="rId14" name="CheckBox66">
           <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
@@ -9147,12 +9266,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId14" name="CheckBox24"/>
+        <control shapeId="1091" r:id="rId14" name="CheckBox66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId16" name="CheckBox25">
+        <control shapeId="1090" r:id="rId16" name="CheckBox65">
           <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
@@ -9172,12 +9291,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId16" name="CheckBox25"/>
+        <control shapeId="1090" r:id="rId16" name="CheckBox65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId18" name="CheckBox26">
+        <control shapeId="1089" r:id="rId18" name="CheckBox64">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -9197,12 +9316,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId18" name="CheckBox26"/>
+        <control shapeId="1089" r:id="rId18" name="CheckBox64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId20" name="CheckBox27">
+        <control shapeId="1088" r:id="rId20" name="CheckBox63">
           <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
@@ -9222,12 +9341,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId20" name="CheckBox27"/>
+        <control shapeId="1088" r:id="rId20" name="CheckBox63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId22" name="CheckBox28">
+        <control shapeId="1087" r:id="rId22" name="CheckBox62">
           <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
@@ -9247,12 +9366,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId22" name="CheckBox28"/>
+        <control shapeId="1087" r:id="rId22" name="CheckBox62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId24" name="CheckBox29">
+        <control shapeId="1086" r:id="rId24" name="CheckBox61">
           <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
@@ -9272,12 +9391,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId24" name="CheckBox29"/>
+        <control shapeId="1086" r:id="rId24" name="CheckBox61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId26" name="CheckBox30">
+        <control shapeId="1085" r:id="rId26" name="CheckBox60">
           <controlPr defaultSize="0" autoLine="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
@@ -9297,12 +9416,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId26" name="CheckBox30"/>
+        <control shapeId="1085" r:id="rId26" name="CheckBox60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId28" name="CheckBox31">
+        <control shapeId="1084" r:id="rId28" name="CheckBox59">
           <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
@@ -9322,12 +9441,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId28" name="CheckBox31"/>
+        <control shapeId="1084" r:id="rId28" name="CheckBox59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId30" name="CheckBox32">
+        <control shapeId="1083" r:id="rId30" name="CheckBox58">
           <controlPr defaultSize="0" autoLine="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
@@ -9347,12 +9466,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId30" name="CheckBox32"/>
+        <control shapeId="1083" r:id="rId30" name="CheckBox58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId32" name="CheckBox33">
+        <control shapeId="1082" r:id="rId32" name="CheckBox57">
           <controlPr defaultSize="0" autoLine="0" r:id="rId33">
             <anchor moveWithCells="1">
               <from>
@@ -9372,12 +9491,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId32" name="CheckBox33"/>
+        <control shapeId="1082" r:id="rId32" name="CheckBox57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId34" name="CheckBox34">
+        <control shapeId="1081" r:id="rId34" name="CheckBox56">
           <controlPr defaultSize="0" autoLine="0" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
@@ -9397,12 +9516,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId34" name="CheckBox34"/>
+        <control shapeId="1081" r:id="rId34" name="CheckBox56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId36" name="CheckBox35">
+        <control shapeId="1080" r:id="rId36" name="CheckBox55">
           <controlPr defaultSize="0" autoLine="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
@@ -9422,12 +9541,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId36" name="CheckBox35"/>
+        <control shapeId="1080" r:id="rId36" name="CheckBox55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId38" name="CheckBox36">
+        <control shapeId="1079" r:id="rId38" name="CheckBox54">
           <controlPr defaultSize="0" autoLine="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
@@ -9447,12 +9566,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId38" name="CheckBox36"/>
+        <control shapeId="1079" r:id="rId38" name="CheckBox54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId40" name="CheckBox37">
+        <control shapeId="1078" r:id="rId40" name="CheckBox53">
           <controlPr defaultSize="0" autoLine="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
@@ -9472,12 +9591,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId40" name="CheckBox37"/>
+        <control shapeId="1078" r:id="rId40" name="CheckBox53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId42" name="CheckBox38">
+        <control shapeId="1077" r:id="rId42" name="CheckBox52">
           <controlPr defaultSize="0" autoLine="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
@@ -9497,12 +9616,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1063" r:id="rId42" name="CheckBox38"/>
+        <control shapeId="1077" r:id="rId42" name="CheckBox52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId44" name="CheckBox39">
+        <control shapeId="1076" r:id="rId44" name="CheckBox51">
           <controlPr defaultSize="0" autoLine="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
@@ -9522,12 +9641,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId44" name="CheckBox39"/>
+        <control shapeId="1076" r:id="rId44" name="CheckBox51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId46" name="CheckBox40">
+        <control shapeId="1075" r:id="rId46" name="CheckBox50">
           <controlPr defaultSize="0" autoLine="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
@@ -9547,12 +9666,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId46" name="CheckBox40"/>
+        <control shapeId="1075" r:id="rId46" name="CheckBox50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId48" name="CheckBox41">
+        <control shapeId="1074" r:id="rId48" name="CheckBox49">
           <controlPr defaultSize="0" autoLine="0" r:id="rId49">
             <anchor moveWithCells="1">
               <from>
@@ -9572,12 +9691,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId48" name="CheckBox41"/>
+        <control shapeId="1074" r:id="rId48" name="CheckBox49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId50" name="CheckBox42">
+        <control shapeId="1073" r:id="rId50" name="CheckBox48">
           <controlPr defaultSize="0" autoLine="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
@@ -9597,12 +9716,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId50" name="CheckBox42"/>
+        <control shapeId="1073" r:id="rId50" name="CheckBox48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId52" name="CheckBox43">
+        <control shapeId="1072" r:id="rId52" name="CheckBox47">
           <controlPr defaultSize="0" autoLine="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
@@ -9622,12 +9741,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId52" name="CheckBox43"/>
+        <control shapeId="1072" r:id="rId52" name="CheckBox47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId54" name="CheckBox44">
+        <control shapeId="1071" r:id="rId54" name="CheckBox46">
           <controlPr defaultSize="0" autoLine="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
@@ -9647,7 +9766,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId54" name="CheckBox44"/>
+        <control shapeId="1071" r:id="rId54" name="CheckBox46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9677,7 +9796,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId58" name="CheckBox46">
+        <control shapeId="1069" r:id="rId58" name="CheckBox44">
           <controlPr defaultSize="0" autoLine="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
@@ -9697,12 +9816,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId58" name="CheckBox46"/>
+        <control shapeId="1069" r:id="rId58" name="CheckBox44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId60" name="CheckBox47">
+        <control shapeId="1068" r:id="rId60" name="CheckBox43">
           <controlPr defaultSize="0" autoLine="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
@@ -9722,12 +9841,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId60" name="CheckBox47"/>
+        <control shapeId="1068" r:id="rId60" name="CheckBox43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId62" name="CheckBox48">
+        <control shapeId="1067" r:id="rId62" name="CheckBox42">
           <controlPr defaultSize="0" autoLine="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
@@ -9747,12 +9866,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId62" name="CheckBox48"/>
+        <control shapeId="1067" r:id="rId62" name="CheckBox42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId64" name="CheckBox49">
+        <control shapeId="1066" r:id="rId64" name="CheckBox41">
           <controlPr defaultSize="0" autoLine="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
@@ -9772,12 +9891,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId64" name="CheckBox49"/>
+        <control shapeId="1066" r:id="rId64" name="CheckBox41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId66" name="CheckBox50">
+        <control shapeId="1065" r:id="rId66" name="CheckBox40">
           <controlPr defaultSize="0" autoLine="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
@@ -9797,12 +9916,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId66" name="CheckBox50"/>
+        <control shapeId="1065" r:id="rId66" name="CheckBox40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId68" name="CheckBox51">
+        <control shapeId="1064" r:id="rId68" name="CheckBox39">
           <controlPr defaultSize="0" autoLine="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
@@ -9822,12 +9941,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId68" name="CheckBox51"/>
+        <control shapeId="1064" r:id="rId68" name="CheckBox39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId70" name="CheckBox52">
+        <control shapeId="1063" r:id="rId70" name="CheckBox38">
           <controlPr defaultSize="0" autoLine="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
@@ -9847,12 +9966,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId70" name="CheckBox52"/>
+        <control shapeId="1063" r:id="rId70" name="CheckBox38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId72" name="CheckBox53">
+        <control shapeId="1062" r:id="rId72" name="CheckBox37">
           <controlPr defaultSize="0" autoLine="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
@@ -9872,12 +9991,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId72" name="CheckBox53"/>
+        <control shapeId="1062" r:id="rId72" name="CheckBox37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId74" name="CheckBox54">
+        <control shapeId="1061" r:id="rId74" name="CheckBox36">
           <controlPr defaultSize="0" autoLine="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
@@ -9897,12 +10016,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId74" name="CheckBox54"/>
+        <control shapeId="1061" r:id="rId74" name="CheckBox36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId76" name="CheckBox55">
+        <control shapeId="1060" r:id="rId76" name="CheckBox35">
           <controlPr defaultSize="0" autoLine="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
@@ -9922,12 +10041,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId76" name="CheckBox55"/>
+        <control shapeId="1060" r:id="rId76" name="CheckBox35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId78" name="CheckBox56">
+        <control shapeId="1059" r:id="rId78" name="CheckBox34">
           <controlPr defaultSize="0" autoLine="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
@@ -9947,12 +10066,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId78" name="CheckBox56"/>
+        <control shapeId="1059" r:id="rId78" name="CheckBox34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId80" name="CheckBox57">
+        <control shapeId="1058" r:id="rId80" name="CheckBox33">
           <controlPr defaultSize="0" autoLine="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
@@ -9972,12 +10091,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId80" name="CheckBox57"/>
+        <control shapeId="1058" r:id="rId80" name="CheckBox33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId82" name="CheckBox58">
+        <control shapeId="1057" r:id="rId82" name="CheckBox32">
           <controlPr defaultSize="0" autoLine="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
@@ -9997,12 +10116,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId82" name="CheckBox58"/>
+        <control shapeId="1057" r:id="rId82" name="CheckBox32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId84" name="CheckBox59">
+        <control shapeId="1056" r:id="rId84" name="CheckBox31">
           <controlPr defaultSize="0" autoLine="0" r:id="rId85">
             <anchor moveWithCells="1">
               <from>
@@ -10022,12 +10141,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId84" name="CheckBox59"/>
+        <control shapeId="1056" r:id="rId84" name="CheckBox31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId86" name="CheckBox60">
+        <control shapeId="1055" r:id="rId86" name="CheckBox30">
           <controlPr defaultSize="0" autoLine="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
@@ -10047,12 +10166,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId86" name="CheckBox60"/>
+        <control shapeId="1055" r:id="rId86" name="CheckBox30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId88" name="CheckBox61">
+        <control shapeId="1054" r:id="rId88" name="CheckBox29">
           <controlPr defaultSize="0" autoLine="0" r:id="rId89">
             <anchor moveWithCells="1">
               <from>
@@ -10072,12 +10191,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId88" name="CheckBox61"/>
+        <control shapeId="1054" r:id="rId88" name="CheckBox29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId90" name="CheckBox62">
+        <control shapeId="1053" r:id="rId90" name="CheckBox28">
           <controlPr defaultSize="0" autoLine="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
@@ -10097,12 +10216,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId90" name="CheckBox62"/>
+        <control shapeId="1053" r:id="rId90" name="CheckBox28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId92" name="CheckBox63">
+        <control shapeId="1052" r:id="rId92" name="CheckBox27">
           <controlPr defaultSize="0" autoLine="0" r:id="rId93">
             <anchor moveWithCells="1">
               <from>
@@ -10122,12 +10241,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId92" name="CheckBox63"/>
+        <control shapeId="1052" r:id="rId92" name="CheckBox27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId94" name="CheckBox64">
+        <control shapeId="1051" r:id="rId94" name="CheckBox26">
           <controlPr defaultSize="0" autoLine="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
@@ -10147,12 +10266,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId94" name="CheckBox64"/>
+        <control shapeId="1051" r:id="rId94" name="CheckBox26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId96" name="CheckBox65">
+        <control shapeId="1050" r:id="rId96" name="CheckBox25">
           <controlPr defaultSize="0" autoLine="0" r:id="rId97">
             <anchor moveWithCells="1">
               <from>
@@ -10172,12 +10291,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId96" name="CheckBox65"/>
+        <control shapeId="1050" r:id="rId96" name="CheckBox25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId98" name="CheckBox66">
+        <control shapeId="1049" r:id="rId98" name="CheckBox24">
           <controlPr defaultSize="0" autoLine="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
@@ -10197,12 +10316,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId98" name="CheckBox66"/>
+        <control shapeId="1049" r:id="rId98" name="CheckBox24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId100" name="CheckBox67">
+        <control shapeId="1048" r:id="rId100" name="CheckBox23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId101">
             <anchor moveWithCells="1">
               <from>
@@ -10222,12 +10341,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId100" name="CheckBox67"/>
+        <control shapeId="1048" r:id="rId100" name="CheckBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId102" name="CheckBox68">
+        <control shapeId="1047" r:id="rId102" name="CheckBox22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
@@ -10247,12 +10366,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId102" name="CheckBox68"/>
+        <control shapeId="1047" r:id="rId102" name="CheckBox22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId104" name="CheckBox69">
+        <control shapeId="1046" r:id="rId104" name="CheckBox21">
           <controlPr defaultSize="0" autoLine="0" r:id="rId105">
             <anchor moveWithCells="1">
               <from>
@@ -10272,12 +10391,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId104" name="CheckBox69"/>
+        <control shapeId="1046" r:id="rId104" name="CheckBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId106" name="CheckBox70">
+        <control shapeId="1045" r:id="rId106" name="CheckBox20">
           <controlPr defaultSize="0" autoLine="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
@@ -10297,12 +10416,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId106" name="CheckBox70"/>
+        <control shapeId="1045" r:id="rId106" name="CheckBox20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId108" name="CheckBox71">
+        <control shapeId="1044" r:id="rId108" name="CheckBox19">
           <controlPr defaultSize="0" autoLine="0" r:id="rId109">
             <anchor moveWithCells="1">
               <from>
@@ -10322,7 +10441,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId108" name="CheckBox71"/>
+        <control shapeId="1044" r:id="rId108" name="CheckBox19"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10674,4 +10793,189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="30">
+        <v>2</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="30">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="30">
+        <v>9</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="30">
+        <v>13</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="30">
+        <v>18</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="30">
+        <v>21</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="30">
+        <v>27</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="30">
+        <v>28</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32">
+        <v>29</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D11 E12:E14">
+      <formula1>$CV$9:$CV$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>